--- a/8-courses/2023-2024-HK3-TTDN/1-NhuanPT-TTDN-2023-2024-HK3-20240612.xlsx
+++ b/8-courses/2023-2024-HK3-TTDN/1-NhuanPT-TTDN-2023-2024-HK3-20240612.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="185">
   <si>
     <t>ỦY BAN NHÂN DÂN TP.HỒ CHÍ MINH</t>
   </si>
@@ -570,6 +570,9 @@
   </si>
   <si>
     <t>Qua Bùi Quốc</t>
+  </si>
+  <si>
+    <t>Ngày ... tháng 06 năm 2024</t>
   </si>
   <si>
     <t>Ngày ... tháng ... năm ...</t>
@@ -1240,7 +1243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1268,6 +1271,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1619,7 +1625,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J57" sqref="J57:L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="13.8"/>
@@ -2620,7 +2626,7 @@
       <c r="A42" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -2885,26 +2891,26 @@
         <v>181</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="10:12">
       <c r="J57" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="11:11">
-      <c r="K60" s="1" t="s">
-        <v>183</v>
+      <c r="K60" s="13" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
